--- a/biology/Botanique/Aposeris/Aposeris.xlsx
+++ b/biology/Botanique/Aposeris/Aposeris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aposeris est un genre de plantes à fleurs appartenant à la famille des Asteraceae (sous-famille Cichorioideae, tribu Cichorieae, sous-tribu Hyoseridinae).
-Le terme vient du grec apo (à côté de) et seris (chicorée) : le genre est voisin de la Chicorée. Ce genre ne comprend qu'une espèce, l'aposéris fétide, une plante vivace à fleurs jaunes[2], qui dégage une odeur de terre pourrie caractéristique lorsqu'on en froisse les feuilles[3].
+Le terme vient du grec apo (à côté de) et seris (chicorée) : le genre est voisin de la Chicorée. Ce genre ne comprend qu'une espèce, l'aposéris fétide, une plante vivace à fleurs jaunes, qui dégage une odeur de terre pourrie caractéristique lorsqu'on en froisse les feuilles.
 On la trouve dans les montagnes d'Europe, entre 800 et 2 000 mètres d'altitude, mais elle est plus commune entre 1 100 et 1 600 mètres.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juin 2014)[4], NCBI  (20 juin 2014)[5], The Plant List            (20 juin 2014)[6] et Tropicos                                           (20 juin 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juin 2014), NCBI  (20 juin 2014), The Plant List            (20 juin 2014) et Tropicos                                           (20 juin 2014) :
 Aposeris foetida Less.</t>
         </is>
       </c>
